--- a/data2.xlsx
+++ b/data2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,137 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CCET.BK</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CPF.BK</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CRC.BK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GPSC.BK</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GULF.BK</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>HMPRO.BK</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ITC.BK</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IVL.BK</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>KBANK.BK</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>KTB.BK</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>KTC.BK</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LH.BK</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MINT.BK</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MTC.BK</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>OSP.BK</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PTT.BK</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>PTTEP.BK</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>SCC.BK</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>SCGP.BK</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>TISCO.BK</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>TLI.BK</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>TOP.BK</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>TRUE.BK</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>TTB.BK</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TU.BK</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>VGI.BK</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>WHA.BK</t>
+          <t>USDTHB=X)</t>
         </is>
       </c>
     </row>
